--- a/Employee Pay Adjustment Process/Data/Input/Employee_Salary.xlsx
+++ b/Employee Pay Adjustment Process/Data/Input/Employee_Salary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raksh\OneDrive\Documents\UiPath\Employee Pay Adjustment Process\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBE014-7A5B-4789-B515-9F861A377164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E02E892-0256-4730-8465-94601E540B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1344" windowWidth="20340" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="132" windowWidth="20340" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDetails" sheetId="1" r:id="rId1"/>
